--- a/va_facility_data_2025-02-20/Downtown West VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Downtown%20West%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Downtown West VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Downtown%20West%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra7ca0e4190f64e0c84f0492aecf12954"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R800aead5548a437db7f8568d4293087a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7705fdc2cda24b5ea2eb57d91aa603f2"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R8beabd0043694cb690c08d72fc4b4560"/>
   </x:sheets>
 </x:workbook>
 </file>
